--- a/cbrunner/Parameters/Parameters_ByBGCZ_FittedToAgeResponses.xlsx
+++ b/cbrunner/Parameters/Parameters_ByBGCZ_FittedToAgeResponses.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153A412-BF4F-4651-8635-4783D28D84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92104037-64C6-432B-99C2-5A787EBD222C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zone" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -624,21 +624,21 @@
       <selection pane="bottomRight" activeCell="M3" sqref="M3:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="16" max="16" width="11" style="6" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="8"/>
-    <col min="36" max="37" width="9.6640625" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="8"/>
+    <col min="36" max="37" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +757,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -876,7 +876,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
@@ -2676,7 +2676,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2688,7 +2688,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
